--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt2-Fzd3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt2-Fzd3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Wnt2</t>
+  </si>
+  <si>
+    <t>Fzd3</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Wnt2</t>
-  </si>
-  <si>
-    <t>Fzd3</t>
-  </si>
-  <si>
     <t>MuSCs</t>
   </si>
   <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.01070233333333333</v>
+        <v>1.767921666666667</v>
       </c>
       <c r="H2">
-        <v>0.032107</v>
+        <v>5.303765</v>
       </c>
       <c r="I2">
-        <v>0.006017198313602724</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.006017198313602724</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.174733</v>
+        <v>0.2310223333333334</v>
       </c>
       <c r="N2">
-        <v>0.524199</v>
+        <v>0.6930670000000001</v>
       </c>
       <c r="O2">
-        <v>0.05882867859784574</v>
+        <v>0.1371162007804382</v>
       </c>
       <c r="P2">
-        <v>0.05882867859784573</v>
+        <v>0.1371162007804382</v>
       </c>
       <c r="Q2">
-        <v>0.001870050810333333</v>
+        <v>0.408429388583889</v>
       </c>
       <c r="R2">
-        <v>0.016830457293</v>
+        <v>3.675864497255001</v>
       </c>
       <c r="S2">
-        <v>0.0003539838256504341</v>
+        <v>0.1371162007804382</v>
       </c>
       <c r="T2">
-        <v>0.000353983825650434</v>
+        <v>0.1371162007804382</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.01070233333333333</v>
+        <v>1.767921666666667</v>
       </c>
       <c r="H3">
-        <v>0.032107</v>
+        <v>5.303765</v>
       </c>
       <c r="I3">
-        <v>0.006017198313602724</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.006017198313602724</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +623,22 @@
         <v>1.448557</v>
       </c>
       <c r="O3">
-        <v>0.1625655412995058</v>
+        <v>0.2865821521640898</v>
       </c>
       <c r="P3">
-        <v>0.1625655412995058</v>
+        <v>0.2865821521640898</v>
       </c>
       <c r="Q3">
-        <v>0.005167646622111111</v>
+        <v>0.8536451019005558</v>
       </c>
       <c r="R3">
-        <v>0.046508819599</v>
+        <v>7.682805917105001</v>
       </c>
       <c r="S3">
-        <v>0.0009781891009573002</v>
+        <v>0.2865821521640898</v>
       </c>
       <c r="T3">
-        <v>0.0009781891009573002</v>
+        <v>0.2865821521640898</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.01070233333333333</v>
+        <v>1.767921666666667</v>
       </c>
       <c r="H4">
-        <v>0.032107</v>
+        <v>5.303765</v>
       </c>
       <c r="I4">
-        <v>0.006017198313602724</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.006017198313602724</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.28034</v>
+        <v>0.9450603333333335</v>
       </c>
       <c r="N4">
-        <v>6.841019999999999</v>
+        <v>2.835181</v>
       </c>
       <c r="O4">
-        <v>0.7677392876778373</v>
+        <v>0.5609114952015948</v>
       </c>
       <c r="P4">
-        <v>0.7677392876778373</v>
+        <v>0.5609114952015947</v>
       </c>
       <c r="Q4">
-        <v>0.02440495879333333</v>
+        <v>1.670792639607223</v>
       </c>
       <c r="R4">
-        <v>0.21964462914</v>
+        <v>15.037133756465</v>
       </c>
       <c r="S4">
-        <v>0.004619639547101639</v>
+        <v>0.5609114952015948</v>
       </c>
       <c r="T4">
-        <v>0.004619639547101639</v>
+        <v>0.5609114952015947</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,433 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.767921666666667</v>
+      </c>
+      <c r="H5">
+        <v>5.303765</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G5">
-        <v>0.01070233333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.032107</v>
-      </c>
-      <c r="I5">
-        <v>0.006017198313602724</v>
-      </c>
-      <c r="J5">
-        <v>0.006017198313602724</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M5">
-        <v>0.02610233333333334</v>
+        <v>0.02593033333333333</v>
       </c>
       <c r="N5">
-        <v>0.078307</v>
+        <v>0.077791</v>
       </c>
       <c r="O5">
-        <v>0.008788069673848112</v>
+        <v>0.01539015185387714</v>
       </c>
       <c r="P5">
-        <v>0.008788069673848112</v>
+        <v>0.01539015185387714</v>
       </c>
       <c r="Q5">
-        <v>0.0002793558721111111</v>
+        <v>0.04584279812388889</v>
       </c>
       <c r="R5">
-        <v>0.002514202849</v>
+        <v>0.412585183115</v>
       </c>
       <c r="S5">
-        <v>5.28795580213021E-05</v>
+        <v>0.01539015185387714</v>
       </c>
       <c r="T5">
-        <v>5.28795580213021E-05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.01070233333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.032107</v>
-      </c>
-      <c r="I6">
-        <v>0.006017198313602724</v>
-      </c>
-      <c r="J6">
-        <v>0.006017198313602724</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.006173333333333333</v>
-      </c>
-      <c r="N6">
-        <v>0.01852</v>
-      </c>
-      <c r="O6">
-        <v>0.002078422750963094</v>
-      </c>
-      <c r="P6">
-        <v>0.002078422750963094</v>
-      </c>
-      <c r="Q6">
-        <v>6.606907111111111E-05</v>
-      </c>
-      <c r="R6">
-        <v>0.0005946216399999999</v>
-      </c>
-      <c r="S6">
-        <v>1.250628187204866E-05</v>
-      </c>
-      <c r="T6">
-        <v>1.250628187204866E-05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.767921666666667</v>
-      </c>
-      <c r="H7">
-        <v>5.303765</v>
-      </c>
-      <c r="I7">
-        <v>0.9939828016863973</v>
-      </c>
-      <c r="J7">
-        <v>0.9939828016863973</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.174733</v>
-      </c>
-      <c r="N7">
-        <v>0.524199</v>
-      </c>
-      <c r="O7">
-        <v>0.05882867859784574</v>
-      </c>
-      <c r="P7">
-        <v>0.05882867859784573</v>
-      </c>
-      <c r="Q7">
-        <v>0.3089142565816667</v>
-      </c>
-      <c r="R7">
-        <v>2.780228309235</v>
-      </c>
-      <c r="S7">
-        <v>0.05847469477219531</v>
-      </c>
-      <c r="T7">
-        <v>0.0584746947721953</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1.767921666666667</v>
-      </c>
-      <c r="H8">
-        <v>5.303765</v>
-      </c>
-      <c r="I8">
-        <v>0.9939828016863973</v>
-      </c>
-      <c r="J8">
-        <v>0.9939828016863973</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0.4828523333333334</v>
-      </c>
-      <c r="N8">
-        <v>1.448557</v>
-      </c>
-      <c r="O8">
-        <v>0.1625655412995058</v>
-      </c>
-      <c r="P8">
-        <v>0.1625655412995058</v>
-      </c>
-      <c r="Q8">
-        <v>0.8536451019005558</v>
-      </c>
-      <c r="R8">
-        <v>7.682805917105001</v>
-      </c>
-      <c r="S8">
-        <v>0.1615873521985485</v>
-      </c>
-      <c r="T8">
-        <v>0.1615873521985485</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.767921666666667</v>
-      </c>
-      <c r="H9">
-        <v>5.303765</v>
-      </c>
-      <c r="I9">
-        <v>0.9939828016863973</v>
-      </c>
-      <c r="J9">
-        <v>0.9939828016863973</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>2.28034</v>
-      </c>
-      <c r="N9">
-        <v>6.841019999999999</v>
-      </c>
-      <c r="O9">
-        <v>0.7677392876778373</v>
-      </c>
-      <c r="P9">
-        <v>0.7677392876778373</v>
-      </c>
-      <c r="Q9">
-        <v>4.031462493366667</v>
-      </c>
-      <c r="R9">
-        <v>36.2831624403</v>
-      </c>
-      <c r="S9">
-        <v>0.7631196481307356</v>
-      </c>
-      <c r="T9">
-        <v>0.7631196481307356</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.767921666666667</v>
-      </c>
-      <c r="H10">
-        <v>5.303765</v>
-      </c>
-      <c r="I10">
-        <v>0.9939828016863973</v>
-      </c>
-      <c r="J10">
-        <v>0.9939828016863973</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.02610233333333334</v>
-      </c>
-      <c r="N10">
-        <v>0.078307</v>
-      </c>
-      <c r="O10">
-        <v>0.008788069673848112</v>
-      </c>
-      <c r="P10">
-        <v>0.008788069673848112</v>
-      </c>
-      <c r="Q10">
-        <v>0.04614688065055556</v>
-      </c>
-      <c r="R10">
-        <v>0.4153219258550001</v>
-      </c>
-      <c r="S10">
-        <v>0.00873519011582681</v>
-      </c>
-      <c r="T10">
-        <v>0.00873519011582681</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.767921666666667</v>
-      </c>
-      <c r="H11">
-        <v>5.303765</v>
-      </c>
-      <c r="I11">
-        <v>0.9939828016863973</v>
-      </c>
-      <c r="J11">
-        <v>0.9939828016863973</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.006173333333333333</v>
-      </c>
-      <c r="N11">
-        <v>0.01852</v>
-      </c>
-      <c r="O11">
-        <v>0.002078422750963094</v>
-      </c>
-      <c r="P11">
-        <v>0.002078422750963094</v>
-      </c>
-      <c r="Q11">
-        <v>0.01091396975555556</v>
-      </c>
-      <c r="R11">
-        <v>0.0982257278</v>
-      </c>
-      <c r="S11">
-        <v>0.002065916469091046</v>
-      </c>
-      <c r="T11">
-        <v>0.002065916469091046</v>
+        <v>0.01539015185387714</v>
       </c>
     </row>
   </sheetData>
